--- a/data/attendance.xlsx
+++ b/data/attendance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Roll_No</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>Attendance</t>
+  </si>
+  <si>
+    <t>F-22-SE-A-3001</t>
+  </si>
+  <si>
+    <t>Ayesha Chaudary</t>
+  </si>
+  <si>
+    <t>CS-0001</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F-22-SE-A-3002</t>
+  </si>
+  <si>
+    <t>CL-0001</t>
   </si>
 </sst>
 </file>
@@ -85,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +420,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45659</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
